--- a/Excel/customization.xlsx
+++ b/Excel/customization.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,18 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Marathi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Customization - Audacity Manual</t>
   </si>
@@ -118,37 +112,37 @@
     <t>If you are interested in working with the Audacity codebase please consider joining our Developer Community. Your code changes can then potentially be incorporated into Audacity for the benefit of all users.</t>
   </si>
   <si>
-    <t>सानुकूलन - धृष्टता मॅन्युअल</t>
+    <t>सानुकूलन - ओड्यासिटी माहिती पुस्तिका</t>
   </si>
   <si>
     <t>सानुकूलन</t>
   </si>
   <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>प्रदान केलेले कीबोर्ड शॉर्टकट जोडणे आणि बदलणे आणि अतिरिक्त प्लगइन लोड करणे यासह अनेक मार्गांनी धृष्टता सानुकूलित केली जाऊ शकते</t>
-  </si>
-  <si>
-    <t>सानुकूल करण्यायोग्य कीबोर्ड शॉर्टकट</t>
-  </si>
-  <si>
-    <t>ऑडसिटीमध्ये बर्‍याच क्रिया करण्यासाठी आपण कीबोर्ड संयोजन वापरू शकता; उदाहरणार्थ कीबोर्ड वर Ctrl + 1 दाबून एका चरणात झूम होते. कीबोर्ड प्राधान्ये टॅबवर वेगवेगळ्या आदेशाशी संबंधित संयोजन बदलली किंवा जोडली जाऊ शकते.</t>
-  </si>
-  <si>
-    <t>काही क्रिया करण्यासाठी माउस क्लिक आणि हालचाली देखील वापरल्या जाऊ शकतात. माउस प्राधान्ये टॅब उपलब्ध असलेल्या माऊस जेश्चरची सूची देते परंतु या क्षणी ते बदलू शकत नाहीत.</t>
+    <t>ओड्यासिटी विकास माहिती पुस्तिका वरुन</t>
+  </si>
+  <si>
+    <t>येथे जा: सुचालन , शोध</t>
+  </si>
+  <si>
+    <t>प्रदान केलेले कळफलक आडमार्ग जोडणे आणि बदलणे आणि अतिरिक्त प्लगइन लोड करणे यासह अनेक मार्गांनी ओड्यासिटी सानुकूलित केली जाऊ शकते</t>
+  </si>
+  <si>
+    <t>सानुकूल करण्यायोग्य कळफलक आडमार्ग</t>
+  </si>
+  <si>
+    <t>ओड्यासिटीमध्ये बर्‍याच क्रिया करण्यासाठी आपण कळफलक संयोजन वापरू शकता ; उदाहरणार्थ कळफलक वर Ctrl + 1 दाबून एका चरणात दृश्य आकार करते. कळफलक प्राधान्ये टॅबवर वेगवेगळ्या आदेशाशी संबंधित संयोजन बदलली किंवा जोडली जाऊ शकते .</t>
+  </si>
+  <si>
+    <t>काही क्रिया करण्यासाठी माउस क्लिक आणि हालचाली देखील वापरल्या जाऊ शकतात. माऊस पसंती टॅब उपलब्ध आहेत पण या क्षणी बदलले जाऊ शकत नाही, जे माउस हातवारे यादी.</t>
   </si>
   <si>
     <t>प्लग-इन्स</t>
   </si>
   <si>
-    <t>ऑडॅसिटीमध्ये अतिरिक्त कार्यक्षमता जोडण्यासाठी आपण प्लगइन डाउनलोड आणि स्थापित करू शकता. प्लग-इन्स आपल्याला अतिरिक्त प्रभाव किंवा अधिक ऑडिओ निर्मिती आणि विश्लेषण क्षमता देऊ शकतात.</t>
-  </si>
-  <si>
-    <t>Nyquist: ऑडीसिटी सह आधीपासूनच असंख्य Nyquist प्लग-इन समाविष्ट आहेत. न्यूक्विस्ट ही ऑडिओ प्रक्रियेसाठी खास तयार केलेली एलआयएसपीची बोली आहे. हे ध्वनी प्रभाव व्युत्पन्न किंवा त्यावर प्रक्रिया करू शकते किंवा ऑडिओ सामग्रीचे विश्लेषण करू शकते.</t>
+    <t>ओड्यासिटीमध्ये अतिरिक्त कार्यक्षमता जोडण्यासाठी आपण प्लगइन डाउनलोड आणि स्थापित करू शकता. प्लग-इन्स आपल्याला अतिरिक्त प्रभाव किंवा अधिक ध्वनी जनरेशन आणि विश्लेषण क्षमता देऊ शकतात.</t>
+  </si>
+  <si>
+    <t>Nyquist: ओड्यासिटी सह आधीपासूनच असंख्य Nyquist प्लग-इन समाविष्ट आहेत. न्यूक्विस्ट विशेषतः ध्वनी प्रक्रियेसाठी विकसित केलेली एलआयएसपीची बोली आहे. हे ध्वनी प्रभाव व्युत्पन्न किंवा त्यावर प्रक्रिया करू शकते किंवा ध्वनी सामग्रीचे विश्लेषण करू शकते.</t>
   </si>
   <si>
     <t>डाउनलोड करण्यासाठी उपलब्ध अतिरिक्त Nyquist प्लगइनची सूची</t>
@@ -166,7 +160,7 @@
     <t>लिनक्स</t>
   </si>
   <si>
-    <t>Nyquist प्लगइन मजकूर फायली आहेत, म्हणून त्या सुधारित करणे किंवा कोणत्याही मजकूर संपादकात आपले स्वतःचे Nyquist प्लगइन तयार करणे तुलनेने सोपे आहे.</t>
+    <t>Nyquist प्लगइन मजकूर धारिका आहेत, म्हणून त्या सुधारित करणे किंवा कोणत्याही मजकूर संपादकात आपले स्वतःचे Nyquist प्लगइन तयार करणे तुलनेने सोपे आहे .</t>
   </si>
   <si>
     <t>इतर प्लग-इन स्वरूप: इतर प्लग-इन स्वरूपने जोडली जाऊ शकतात:</t>
@@ -184,50 +178,42 @@
     <t>व्हीएसटी प्रभाव</t>
   </si>
   <si>
-    <t>ऑडिओ युनिट प्रभाव (मॅक ओएस एक्स एएमडी मॅकोससाठी).</t>
-  </si>
-  <si>
-    <t>मॉड्यूल प्लग-इन (प्रगत - सहसा कंपाईल ऑडॅसिटी आवश्यक असते).</t>
+    <t>ध्वनी एकक प्रभाव (मॅक ओएस एक्स एएमडी मॅकोससाठी).</t>
+  </si>
+  <si>
+    <t>मॉड्यूल प्लग-इन (प्रगत - सहसा कंपाईल ओड्यासिटी आवश्यक असते).</t>
   </si>
   <si>
     <t>प्लग-इन स्थापित करण्यासाठी सूचना येथे आढळू शकतात:</t>
   </si>
   <si>
-    <t>विंडोजवर प्रभाव, जनरेटर आणि विश्लेषक प्लग-इन स्थापित करणे</t>
-  </si>
-  <si>
-    <t>मॅक ओएस एक्स / मॅकओएसवर प्रभाव, जनरेटर आणि विश्लेषक प्लग-इन स्थापित करीत आहे</t>
-  </si>
-  <si>
-    <t>Linux वर प्रभाव, जनरेटर आणि विश्लेषक प्लग-इन स्थापित करीत आहे</t>
+    <t>विंडोजवर प्रभाव, निर्माण करणारे आणि विश्लेषक प्लग-इन स्थापित करणे</t>
+  </si>
+  <si>
+    <t>मॅक ओएस एक्स / मॅकओएसवर प्रभाव, निर्माण करणारे आणि विश्लेषक प्लग-इन स्थापित करीत आहे</t>
+  </si>
+  <si>
+    <t>लिनक्सवर प्रभाव, निर्माण करणारे आणि विश्लेषक प्लग-इन स्थापित करीत आहे</t>
   </si>
   <si>
     <t>अंतिम सानुकूलन</t>
   </si>
   <si>
-    <t>कोणीही आमचा स्त्रोत कोड डाउनलोड करू शकतो. कोड बदलणे आणि ऑडीसिटीची पुन्हा कंपाईल करणे आपल्याला त्याच्या वर्तनाचे कोणतेही पैलू बदलण्याची किंवा प्रायोगिक किंवा वैकल्पिक वैशिष्ट्ये चालू करण्यास अनुमती देते.</t>
-  </si>
-  <si>
-    <t>ऑडॅसिटी विकीवर विंडोज, मॅक आणि जीएनयू / लिनक्ससाठी संकलित ऑडॅसिटी करण्यासाठी आमचे मार्गदर्शक पहा. आपल्याला संकलित करण्यात मदतीची आवश्यकता असल्यास कृपया आमच्या ऑडॅसिटी फोरमवरील कंपाईल ऑडॅसिटी बोर्डवर विचारा.</t>
-  </si>
-  <si>
-    <t>आपल्याला ऑडसिटी कोडबेससह कार्य करण्यास स्वारस्य असल्यास कृपया आमच्या विकसक समुदायामध्ये सामील होण्याचा विचार करा. आपले कोड बदल संभाव्यत: सर्व वापरकर्त्यांच्या फायद्यासाठी ऑडॅसिटीमध्ये समाविष्ट केले जाऊ शकतात.</t>
+    <t>कोणीही आमचा स्त्रोत कोड डाउनलोड करू शकतो . कोड बदलणे आणि ओड्यासिटीची पुन्हा कंपाईल करणे आपल्याला त्याच्या वर्तनाचे कोणतेही पैलू बदलण्याची किंवा प्रायोगिक किंवा वैकल्पिक वैशिष्ट्ये चालू करण्यास अनुमती देते.</t>
+  </si>
+  <si>
+    <t>साठी ओड्यासिटी GenericName संकलित आमच्या मार्गदर्शक पहा विंडोज , मॅक आणि जीएनयु / लिनक्स वर ओड्यासिटी GenericName विकी . आपल्याला संकलित करण्यात मदतीची आवश्यकता असल्यास कृपया आमच्या ओड्यासिटी मंचवरील कंपाईल ओड्यासिटी मंडळवर विचारा .</t>
+  </si>
+  <si>
+    <t>आपल्याला ओड्यासिटी कोडबेससह काम करण्यास स्वारस्य असल्यास कृपया आमच्या विकसक समुदायामध्ये सामील होण्याचा विचार करा . आपले कोड बदल संभाव्यत: सर्व वापरकर्त्यांच्या फायद्यासाठी ओड्यासिटीमध्ये समाविष्ट केले जाऊ शकतात.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -243,27 +229,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -272,8 +243,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -281,6 +252,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -359,6 +335,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -393,6 +370,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -568,371 +546,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="96.5703125" customWidth="1"/>
+    <col min="2" max="2" width="112.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B24" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B27" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B28" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B29" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B32" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
